--- a/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\EoNVFEwFC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,12 +25,12 @@
   <definedNames>
     <definedName name="elec_fraction">'Plug-in Hybrid Elec Fraction'!$A$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>EoNVFEwFC Elasticity of New Veh Fuel Economy wrt Fuel Cost</t>
   </si>
@@ -105,9 +110,6 @@
     <t>plugin hybrid vehicle</t>
   </si>
   <si>
-    <t>nonroad vehicle</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -187,12 +189,60 @@
   </si>
   <si>
     <t>fuel according to the fraction of electricity used by plug-in hybrids.</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>For ships, we divide the elasticity between diesel fuel and residual fuel oil according</t>
+  </si>
+  <si>
+    <t>to the fraction of each of these fuel types used by freight ships in the start year.</t>
+  </si>
+  <si>
+    <t>Elasticities</t>
+  </si>
+  <si>
+    <t>trillion BTU</t>
+  </si>
+  <si>
+    <t>Fraction of Fuel Used by Freight Ships (2017)</t>
+  </si>
+  <si>
+    <t>sum of domestic and international freight shipping</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>fraction of fuel used by freight ships</t>
+  </si>
+  <si>
+    <t>See variable trans/BPoEFUbVT</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Elasticity (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -326,7 +376,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -344,6 +394,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="2"/>
@@ -361,6 +414,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,9 +709,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -733,67 +789,87 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
+      <c r="B25" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -816,17 +892,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -836,22 +912,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -861,62 +937,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <f>B$3</f>
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B6" si="0">B$3</f>
+        <f>B$4</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C5" t="s">
@@ -925,30 +996,105 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B7" si="0">B$4</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <f>B$2</f>
+      <c r="B8">
+        <f>B$3</f>
         <v>0.1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <f>522+285</f>
+        <v>807</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <f>3+675</f>
+        <v>678</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11">
+        <f>B15/SUM(B$15:B$16)</f>
+        <v>0.54343434343434338</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="11">
+        <f>B16/SUM(B$15:B$16)</f>
+        <v>0.45656565656565656</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -957,9 +1103,9 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -968,12 +1114,13 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -990,174 +1137,278 @@
         <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <f>Data!$B$3</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Data!$B3*elec_fraction</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <f>Data!$B$2</f>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$3</f>
         <v>0.1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>Data!$B2*elec_fraction</f>
-        <v>5.5000000000000007E-2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>Data!$B$2</f>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$3</f>
         <v>0.1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Data!$B$3*(1-elec_fraction)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>Data!$B$2</f>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$3</f>
         <v>0.1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>Data!$B$2*(1-elec_fraction)</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>Data!$B$2</f>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Data!$B$3</f>
         <v>0.1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Data!$B$3</f>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1422,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1182,12 +1433,13 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1204,174 +1456,278 @@
         <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <f>Data!$B$4</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Data!$B$4*elec_fraction</f>
+        <v>2.4750000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <f>Data!$B$3</f>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$4</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>Data!$B$3*elec_fraction</f>
-        <v>2.4750000000000001E-2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>Data!$B$3</f>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$4</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>Data!$B$3</f>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$4</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5">
+        <f>Data!$B$4*(1-elec_fraction)</f>
+        <v>2.0249999999999997E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>Data!$B$3</f>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Data!$B$4</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F5">
-        <f>Data!$B$3*(1-elec_fraction)</f>
-        <v>2.0249999999999997E-2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Data!$B$4</f>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1741,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,12 +1752,13 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1418,151 +1775,175 @@
         <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <f>Data!$B$5</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$5</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$5</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
@@ -1573,13 +1954,95 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f>Data!$B$5</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <f>Data!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Data!$B$5</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
@@ -1594,7 +2057,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1605,12 +2068,13 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1627,169 +2091,275 @@
         <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <f>Data!$B$6</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$6</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$6</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$6</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f>Data!$B$5</f>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Data!$B$6</f>
         <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +2373,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1814,12 +2384,13 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1836,169 +2407,276 @@
         <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <f>Data!$B$7</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$7</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$7</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$7*Data!B18</f>
+        <v>2.4454545454545451E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f>Data!$B$6</f>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>Data!$B$7*Data!B19</f>
+        <v>2.0545454545454544E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Data!$B$7</f>
         <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2690,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2023,12 +2701,13 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="6" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
@@ -2045,174 +2724,278 @@
         <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <f>Data!$B$8</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Data!$B8*elec_fraction</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <f>Data!$B$7</f>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$8</f>
         <v>0.1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>Data!$B7*elec_fraction</f>
-        <v>5.5000000000000007E-2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>Data!$B$7</f>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$8</f>
         <v>0.1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Data!$B$8*(1-elec_fraction)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>Data!$B$7</f>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$8</f>
         <v>0.1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>Data!$B$7*(1-elec_fraction)</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>Data!$B$7</f>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Data!$B$8</f>
         <v>0.1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Data!$B$8</f>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2474,13 +3257,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D95B83CC-FEAA-4EC9-B1FD-51A4427CFFD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09D7702E-16D9-4032-BF53-D3B5B6BD202F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0B5A64-5354-4F35-A23F-12C847812AB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1BDA0E2-4F5A-4388-A0A9-28713DEC22B5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDFBAB3F-B588-413B-981E-7724DC24F8F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{071CA728-021D-49CC-B015-0D75BFC4965B}"/>
 </file>